--- a/dist/document/dest/2020/10/doctors/103.xlsx
+++ b/dist/document/dest/2020/10/doctors/103.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
-        <v>16700</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>15</v>
       </c>
-      <c r="C3" s="1">
-        <v>37350</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>560</v>
       </c>
-      <c r="C4" s="1">
-        <v>3220000</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>765</v>
       </c>
-      <c r="C5" s="1">
-        <v>5722200</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>840</v>
       </c>
-      <c r="C6" s="1">
-        <v>6283200</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>470</v>
       </c>
-      <c r="C7" s="1">
-        <v>2702500</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>70</v>
       </c>
-      <c r="C8" s="1">
-        <v>924000</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>10</v>
       </c>
-      <c r="C9" s="1">
-        <v>34500</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -492,9 +468,6 @@
       <c r="B10" s="1">
         <v>1050</v>
       </c>
-      <c r="C10" s="1">
-        <v>11319000</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -503,9 +476,6 @@
       <c r="B11" s="1">
         <v>62</v>
       </c>
-      <c r="C11" s="1">
-        <v>2046000</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -514,9 +484,6 @@
       <c r="B12" s="1">
         <v>3792</v>
       </c>
-      <c r="C12" s="1">
-        <v>15262800</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -525,9 +492,6 @@
       <c r="B13" s="1">
         <v>96</v>
       </c>
-      <c r="C13" s="1">
-        <v>3196800</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -536,9 +500,6 @@
       <c r="B14" s="1">
         <v>5642</v>
       </c>
-      <c r="C14" s="1">
-        <v>19464900</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -547,9 +508,6 @@
       <c r="B15" s="1">
         <v>1</v>
       </c>
-      <c r="C15" s="1">
-        <v>99000</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -558,9 +516,6 @@
       <c r="B16" s="1">
         <v>19</v>
       </c>
-      <c r="C16" s="1">
-        <v>58900</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -569,9 +524,6 @@
       <c r="B17" s="1">
         <v>1570</v>
       </c>
-      <c r="C17" s="1">
-        <v>6319250</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -580,9 +532,6 @@
       <c r="B18" s="1">
         <v>4</v>
       </c>
-      <c r="C18" s="1">
-        <v>282000</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -591,9 +540,6 @@
       <c r="B19" s="1">
         <v>4507</v>
       </c>
-      <c r="C19" s="1">
-        <v>41644680</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -602,9 +548,6 @@
       <c r="B20" s="1">
         <v>2</v>
       </c>
-      <c r="C20" s="1">
-        <v>114200</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -613,9 +556,6 @@
       <c r="B21" s="1">
         <v>1070</v>
       </c>
-      <c r="C21" s="1">
-        <v>5783350</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -624,9 +564,6 @@
       <c r="B22" s="1">
         <v>200</v>
       </c>
-      <c r="C22" s="1">
-        <v>5500000</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -635,9 +572,6 @@
       <c r="B23" s="1">
         <v>995</v>
       </c>
-      <c r="C23" s="1">
-        <v>4119300</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -647,7 +581,7 @@
         <v>21741</v>
       </c>
       <c r="C24" s="1">
-        <v>134150630</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/103.xlsx
+++ b/dist/document/dest/2020/10/doctors/103.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C115"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -399,18 +399,24 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Acyclovir PM</v>
+        <v>Anbach (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>80</v>
+      </c>
+      <c r="C2" s="1">
+        <v>460000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Alpha Choay (VN)</v>
+        <v>Anbach (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B3" s="1">
-        <v>15</v>
+        <v>40</v>
+      </c>
+      <c r="C3" s="1">
+        <v>230000</v>
       </c>
     </row>
     <row r="4">
@@ -418,175 +424,1236 @@
         <v>Anbach (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B4" s="1">
-        <v>560</v>
+        <v>40</v>
+      </c>
+      <c r="C4" s="1">
+        <v>230000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Atdoncam syrup (Piracetam800mg/5ml)</v>
+        <v>Anbach (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B5" s="1">
-        <v>765</v>
+        <v>90</v>
+      </c>
+      <c r="C5" s="1">
+        <v>517500</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Bilomag (Ginkgo biloba 80mg)</v>
+        <v>Anbach (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B6" s="1">
-        <v>840</v>
+        <v>30</v>
+      </c>
+      <c r="C6" s="1">
+        <v>172500</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Casmorin (Amino acids-vitamins)</v>
+        <v>Atdoncam syrup (Piracetam800mg/5ml)</v>
       </c>
       <c r="B7" s="1">
-        <v>470</v>
+        <v>210</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1570800</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Celevox (Levofloxacin 500mg)</v>
+        <v>Atdoncam syrup (Piracetam800mg/5ml)</v>
       </c>
       <c r="B8" s="1">
-        <v>70</v>
+        <v>40</v>
+      </c>
+      <c r="C8" s="1">
+        <v>299200</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Celivite (Multivitamin &amp; Minerals)</v>
+        <v>Atdoncam syrup (Piracetam800mg/5ml)</v>
       </c>
       <c r="B9" s="1">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="C9" s="1">
+        <v>149600</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Ciheptal (Piracetam 1200mg) 10ml</v>
+        <v>Atdoncam syrup (Piracetam800mg/5ml)</v>
       </c>
       <c r="B10" s="1">
-        <v>1050</v>
+        <v>80</v>
+      </c>
+      <c r="C10" s="1">
+        <v>598400</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Eskar Red (Tetrahydrozolin 7.5mg)</v>
+        <v>Atdoncam syrup (Piracetam800mg/5ml)</v>
       </c>
       <c r="B11" s="1">
-        <v>62</v>
+        <v>150</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1122000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Gujujnam (Piracetam 800mg)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B12" s="1">
-        <v>3792</v>
+        <v>28</v>
+      </c>
+      <c r="C12" s="1">
+        <v>215600</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Karyuni Collyre (Pirenoxine 0.005%)</v>
+        <v>Bilomag (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B13" s="1">
-        <v>96</v>
+        <v>40</v>
+      </c>
+      <c r="C13" s="1">
+        <v>299200</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Kogimin (Multivitamine &amp; Minerals)</v>
+        <v>Bilomag (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B14" s="1">
-        <v>5642</v>
+        <v>60</v>
+      </c>
+      <c r="C14" s="1">
+        <v>448800</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Medoral (Chlorhexidin 250ml)</v>
+        <v>Bilomag (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B15" s="1">
-        <v>1</v>
+        <v>70</v>
+      </c>
+      <c r="C15" s="1">
+        <v>523600</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Natri Clorid 0.9% 10ml</v>
+        <v>Bilomag (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B16" s="1">
-        <v>19</v>
+        <v>200</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1496000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Philiver (Carduus, vitamin..)</v>
+        <v>Bilomag (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B17" s="1">
-        <v>1570</v>
+        <v>60</v>
+      </c>
+      <c r="C17" s="1">
+        <v>448800</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Refresh Tear 15ML (Natri carboxymethylcellulose 0.5%)</v>
+        <v>Bilomag (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B18" s="1">
-        <v>4</v>
+        <v>60</v>
+      </c>
+      <c r="C18" s="1">
+        <v>448800</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Remem (Ginkgo biloba 120mg)</v>
+        <v>Cardival (Valsartan 80mg)</v>
       </c>
       <c r="B19" s="1">
-        <v>4507</v>
+        <v>28</v>
+      </c>
+      <c r="C19" s="1">
+        <v>231000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Sancoba  5ml(Cyanocoblamin 0.02%)</v>
+        <v>Casmorin (Amino acids-vitamins)</v>
       </c>
       <c r="B20" s="1">
-        <v>2</v>
+        <v>130</v>
+      </c>
+      <c r="C20" s="1">
+        <v>747500</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Seovigo (Ginkgo biloba 80mg)</v>
+        <v>Casmorin (Amino acids-vitamins)</v>
       </c>
       <c r="B21" s="1">
-        <v>1070</v>
+        <v>15</v>
+      </c>
+      <c r="C21" s="1">
+        <v>86250</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Syseye (Hypromellose 0.3% 10ml)</v>
+        <v>Casmorin (Amino acids-vitamins)</v>
       </c>
       <c r="B22" s="1">
-        <v>200</v>
+        <v>40</v>
+      </c>
+      <c r="C22" s="1">
+        <v>230000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Timiroitin</v>
+        <v>Celevox (Levofloxacin 500mg)</v>
       </c>
       <c r="B23" s="1">
-        <v>995</v>
+        <v>10</v>
+      </c>
+      <c r="C23" s="1">
+        <v>132000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
+        <v>Celevox (Levofloxacin 500mg)</v>
+      </c>
+      <c r="B24" s="1">
+        <v>25</v>
+      </c>
+      <c r="C24" s="1">
+        <v>330000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Celivite (Multivitamin &amp; Minerals)</v>
+      </c>
+      <c r="B25" s="1">
+        <v>90</v>
+      </c>
+      <c r="C25" s="1">
+        <v>310500</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Celivite (Multivitamin &amp; Minerals)</v>
+      </c>
+      <c r="B26" s="1">
+        <v>160</v>
+      </c>
+      <c r="C26" s="1">
+        <v>552000</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Celivite (Multivitamin &amp; Minerals)</v>
+      </c>
+      <c r="B27" s="1">
+        <v>190</v>
+      </c>
+      <c r="C27" s="1">
+        <v>655500</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Celivite (Multivitamin &amp; Minerals)</v>
+      </c>
+      <c r="B28" s="1">
+        <v>575</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1983750</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Celivite (Multivitamin &amp; Minerals)</v>
+      </c>
+      <c r="B29" s="1">
+        <v>90</v>
+      </c>
+      <c r="C29" s="1">
+        <v>310500</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Celivite (Multivitamin &amp; Minerals)</v>
+      </c>
+      <c r="B30" s="1">
+        <v>60</v>
+      </c>
+      <c r="C30" s="1">
+        <v>207000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Ciheptal (Piracetam 1200mg) 10ml</v>
+      </c>
+      <c r="B31" s="1">
+        <v>55</v>
+      </c>
+      <c r="C31" s="1">
+        <v>592900</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Ciheptal (Piracetam 1200mg) 10ml</v>
+      </c>
+      <c r="B32" s="1">
+        <v>210</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2263800</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Ciheptal (Piracetam 1200mg) 10ml</v>
+      </c>
+      <c r="B33" s="1">
+        <v>150</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1617000</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Ciheptal (Piracetam 1200mg) 10ml</v>
+      </c>
+      <c r="B34" s="1">
+        <v>535</v>
+      </c>
+      <c r="C34" s="1">
+        <v>5767300</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Ciheptal (Piracetam 1200mg) 10ml</v>
+      </c>
+      <c r="B35" s="1">
+        <v>60</v>
+      </c>
+      <c r="C35" s="1">
+        <v>646800</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Ciheptal (Piracetam 1200mg) 10ml</v>
+      </c>
+      <c r="B36" s="1">
+        <v>90</v>
+      </c>
+      <c r="C36" s="1">
+        <v>970200</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Eskar Red (Tetrahydrozolin 7.5mg)</v>
+      </c>
+      <c r="B37" s="1">
+        <v>6</v>
+      </c>
+      <c r="C37" s="1">
+        <v>198000</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Eskar Red (Tetrahydrozolin 7.5mg)</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1">
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Eskar Red (Tetrahydrozolin 7.5mg)</v>
+      </c>
+      <c r="B39" s="1">
+        <v>11</v>
+      </c>
+      <c r="C39" s="1">
+        <v>363000</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Eskar Red (Tetrahydrozolin 7.5mg)</v>
+      </c>
+      <c r="B40" s="1">
+        <v>9</v>
+      </c>
+      <c r="C40" s="1">
+        <v>297000</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Eskar Red (Tetrahydrozolin 7.5mg)</v>
+      </c>
+      <c r="B41" s="1">
+        <v>58</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1914000</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Eskar Red (Tetrahydrozolin 7.5mg)</v>
+      </c>
+      <c r="B42" s="1">
+        <v>15</v>
+      </c>
+      <c r="C42" s="1">
+        <v>495000</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Eskar Red (Tetrahydrozolin 7.5mg)</v>
+      </c>
+      <c r="B43" s="1">
+        <v>13</v>
+      </c>
+      <c r="C43" s="1">
+        <v>429000</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>Goldesome (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B44" s="1">
+        <v>30</v>
+      </c>
+      <c r="C44" s="1">
+        <v>653400</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Gujujnam (Piracetam 800mg)</v>
+      </c>
+      <c r="B45" s="1">
+        <v>167</v>
+      </c>
+      <c r="C45" s="1">
+        <v>672175</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Gujujnam (Piracetam 800mg)</v>
+      </c>
+      <c r="B46" s="1">
+        <v>260</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1046500</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>Gujujnam (Piracetam 800mg)</v>
+      </c>
+      <c r="B47" s="1">
+        <v>300</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1207500</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>Gujujnam (Piracetam 800mg)</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1837</v>
+      </c>
+      <c r="C48" s="1">
+        <v>7393925</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>Gujujnam (Piracetam 800mg)</v>
+      </c>
+      <c r="B49" s="1">
+        <v>170</v>
+      </c>
+      <c r="C49" s="1">
+        <v>684250</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Gujujnam (Piracetam 800mg)</v>
+      </c>
+      <c r="B50" s="1">
+        <v>140</v>
+      </c>
+      <c r="C50" s="1">
+        <v>563500</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>Gujujnam (Piracetam 800mg)</v>
+      </c>
+      <c r="B51" s="1">
+        <v>150</v>
+      </c>
+      <c r="C51" s="1">
+        <v>603750</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Karyuni Collyre (Pirenoxine 0.005%)</v>
+      </c>
+      <c r="B52" s="1">
+        <v>6</v>
+      </c>
+      <c r="C52" s="1">
+        <v>199800</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Karyuni Collyre (Pirenoxine 0.005%)</v>
+      </c>
+      <c r="B53" s="1">
+        <v>8</v>
+      </c>
+      <c r="C53" s="1">
+        <v>266400</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Karyuni Collyre (Pirenoxine 0.005%)</v>
+      </c>
+      <c r="B54" s="1">
+        <v>6</v>
+      </c>
+      <c r="C54" s="1">
+        <v>199800</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>Karyuni Collyre (Pirenoxine 0.005%)</v>
+      </c>
+      <c r="B55" s="1">
+        <v>2</v>
+      </c>
+      <c r="C55" s="1">
+        <v>66600</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>Karyuni Collyre (Pirenoxine 0.005%)</v>
+      </c>
+      <c r="B56" s="1">
+        <v>48</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1598400</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>Karyuni Collyre (Pirenoxine 0.005%)</v>
+      </c>
+      <c r="B57" s="1">
+        <v>11</v>
+      </c>
+      <c r="C57" s="1">
+        <v>366300</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>Kogimin (Multivitamine &amp; Minerals)</v>
+      </c>
+      <c r="B58" s="1">
+        <v>117</v>
+      </c>
+      <c r="C58" s="1">
+        <v>403650</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Kogimin (Multivitamine &amp; Minerals)</v>
+      </c>
+      <c r="B59" s="1">
+        <v>205</v>
+      </c>
+      <c r="C59" s="1">
+        <v>707250</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Kogimin (Multivitamine &amp; Minerals)</v>
+      </c>
+      <c r="B60" s="1">
+        <v>430</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1483500</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>Kogimin (Multivitamine &amp; Minerals)</v>
+      </c>
+      <c r="B61" s="1">
+        <v>270</v>
+      </c>
+      <c r="C61" s="1">
+        <v>931500</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>Kogimin (Multivitamine &amp; Minerals)</v>
+      </c>
+      <c r="B62" s="1">
+        <v>2296</v>
+      </c>
+      <c r="C62" s="1">
+        <v>7921200</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Kogimin (Multivitamine &amp; Minerals)</v>
+      </c>
+      <c r="B63" s="1">
+        <v>320</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1104000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Kogimin (Multivitamine &amp; Minerals)</v>
+      </c>
+      <c r="B64" s="1">
+        <v>625</v>
+      </c>
+      <c r="C64" s="1">
+        <v>2156250</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>Litopau (Itopride 50mg)</v>
+      </c>
+      <c r="B65" s="1">
+        <v>60</v>
+      </c>
+      <c r="C65" s="1">
+        <v>276000</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Medi-Levosulpirid (Levosulpiride 25mg)</v>
+      </c>
+      <c r="B66" s="1">
+        <v>70</v>
+      </c>
+      <c r="C66" s="1">
+        <v>209300</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Natri Clorid 0.9% 10ml</v>
+      </c>
+      <c r="B67" s="1">
+        <v>4</v>
+      </c>
+      <c r="C67" s="1">
+        <v>12400</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Natri Clorid 0.9% 10ml</v>
+      </c>
+      <c r="B68" s="1">
+        <v>1</v>
+      </c>
+      <c r="C68" s="1">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>Natri Clorid 0.9% 10ml</v>
+      </c>
+      <c r="B69" s="1">
+        <v>2</v>
+      </c>
+      <c r="C69" s="1">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Natri Clorid 0.9% 10ml</v>
+      </c>
+      <c r="B70" s="1">
+        <v>10</v>
+      </c>
+      <c r="C70" s="1">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>Natri Clorid 0.9% 10ml</v>
+      </c>
+      <c r="B71" s="1">
+        <v>2</v>
+      </c>
+      <c r="C71" s="1">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>Natri Clorid 0.9% 10ml</v>
+      </c>
+      <c r="B72" s="1">
+        <v>2</v>
+      </c>
+      <c r="C72" s="1">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Nevol (Nebivolol 2.5mg)</v>
+      </c>
+      <c r="B73" s="1">
+        <v>30</v>
+      </c>
+      <c r="C73" s="1">
+        <v>120750</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Novofine 31g X 6mm B/100 (Kim)</v>
+      </c>
+      <c r="B74" s="1">
+        <v>20</v>
+      </c>
+      <c r="C74" s="1">
+        <v>49400</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Philiver (Carduus, vitamin..)</v>
+      </c>
+      <c r="B75" s="1">
+        <v>60</v>
+      </c>
+      <c r="C75" s="1">
+        <v>241500</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>Philiver (Carduus, vitamin..)</v>
+      </c>
+      <c r="B76" s="1">
+        <v>60</v>
+      </c>
+      <c r="C76" s="1">
+        <v>241500</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Philiver (Carduus, vitamin..)</v>
+      </c>
+      <c r="B77" s="1">
+        <v>100</v>
+      </c>
+      <c r="C77" s="1">
+        <v>402500</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>Philiver (Carduus, vitamin..)</v>
+      </c>
+      <c r="B78" s="1">
+        <v>20</v>
+      </c>
+      <c r="C78" s="1">
+        <v>80500</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>Philiver (Carduus, vitamin..)</v>
+      </c>
+      <c r="B79" s="1">
+        <v>982</v>
+      </c>
+      <c r="C79" s="1">
+        <v>3952550</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>Philiver (Carduus, vitamin..)</v>
+      </c>
+      <c r="B80" s="1">
+        <v>150</v>
+      </c>
+      <c r="C80" s="1">
+        <v>603750</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>Philiver (Carduus, vitamin..)</v>
+      </c>
+      <c r="B81" s="1">
+        <v>190</v>
+      </c>
+      <c r="C81" s="1">
+        <v>764750</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Philiver (Carduus, vitamin..)</v>
+      </c>
+      <c r="B82" s="1">
+        <v>480</v>
+      </c>
+      <c r="C82" s="1">
+        <v>1932000</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>Remem (Ginkgo biloba 120mg)</v>
+      </c>
+      <c r="B83" s="1">
+        <v>220</v>
+      </c>
+      <c r="C83" s="1">
+        <v>2032800</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>Remem (Ginkgo biloba 120mg)</v>
+      </c>
+      <c r="B84" s="1">
+        <v>180</v>
+      </c>
+      <c r="C84" s="1">
+        <v>1663200</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Remem (Ginkgo biloba 120mg)</v>
+      </c>
+      <c r="B85" s="1">
+        <v>20</v>
+      </c>
+      <c r="C85" s="1">
+        <v>184800</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>Remem (Ginkgo biloba 120mg)</v>
+      </c>
+      <c r="B86" s="1">
+        <v>2584</v>
+      </c>
+      <c r="C86" s="1">
+        <v>23876160</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>Remem (Ginkgo biloba 120mg)</v>
+      </c>
+      <c r="B87" s="1">
+        <v>140</v>
+      </c>
+      <c r="C87" s="1">
+        <v>1293600</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>Remem (Ginkgo biloba 120mg)</v>
+      </c>
+      <c r="B88" s="1">
+        <v>390</v>
+      </c>
+      <c r="C88" s="1">
+        <v>3603600</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>Remem (Ginkgo biloba 120mg)</v>
+      </c>
+      <c r="B89" s="1">
+        <v>540</v>
+      </c>
+      <c r="C89" s="1">
+        <v>4989600</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>Remem (Ginkgo biloba 120mg)</v>
+      </c>
+      <c r="B90" s="1">
+        <v>300</v>
+      </c>
+      <c r="C90" s="1">
+        <v>2772000</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>Rosutrox (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B91" s="1">
+        <v>30</v>
+      </c>
+      <c r="C91" s="1">
+        <v>264000</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>Seovigo (Ginkgo biloba 80mg)</v>
+      </c>
+      <c r="B92" s="1">
+        <v>7</v>
+      </c>
+      <c r="C92" s="1">
+        <v>37835</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>Seovigo (Ginkgo biloba 80mg)</v>
+      </c>
+      <c r="B93" s="1">
+        <v>130</v>
+      </c>
+      <c r="C93" s="1">
+        <v>702650</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>Seovigo (Ginkgo biloba 80mg)</v>
+      </c>
+      <c r="B94" s="1">
+        <v>490</v>
+      </c>
+      <c r="C94" s="1">
+        <v>2648450</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>Seovigo (Ginkgo biloba 80mg)</v>
+      </c>
+      <c r="B95" s="1">
+        <v>110</v>
+      </c>
+      <c r="C95" s="1">
+        <v>594550</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>Seovigo (Ginkgo biloba 80mg)</v>
+      </c>
+      <c r="B96" s="1">
+        <v>160</v>
+      </c>
+      <c r="C96" s="1">
+        <v>864800</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>Seovigo (Ginkgo biloba 80mg)</v>
+      </c>
+      <c r="B97" s="1">
+        <v>110</v>
+      </c>
+      <c r="C97" s="1">
+        <v>594550</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>Seovigo (Ginkgo biloba 80mg)</v>
+      </c>
+      <c r="B98" s="1">
+        <v>90</v>
+      </c>
+      <c r="C98" s="1">
+        <v>486450</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>Syseye (Hypromellose 0.3% 10ml)</v>
+      </c>
+      <c r="B99" s="1">
+        <v>3</v>
+      </c>
+      <c r="C99" s="1">
+        <v>82500</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>Syseye (Hypromellose 0.3% 10ml)</v>
+      </c>
+      <c r="B100" s="1">
+        <v>7</v>
+      </c>
+      <c r="C100" s="1">
+        <v>192500</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>Syseye (Hypromellose 0.3% 10ml)</v>
+      </c>
+      <c r="B101" s="1">
+        <v>12</v>
+      </c>
+      <c r="C101" s="1">
+        <v>330000</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>Syseye (Hypromellose 0.3% 10ml)</v>
+      </c>
+      <c r="B102" s="1">
+        <v>75</v>
+      </c>
+      <c r="C102" s="1">
+        <v>2062500</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>Syseye (Hypromellose 0.3% 10ml)</v>
+      </c>
+      <c r="B103" s="1">
+        <v>10</v>
+      </c>
+      <c r="C103" s="1">
+        <v>275000</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>Syseye (Hypromellose 0.3% 10ml)</v>
+      </c>
+      <c r="B104" s="1">
+        <v>3</v>
+      </c>
+      <c r="C104" s="1">
+        <v>82500</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>Syseye (Hypromellose 0.3% 10ml)</v>
+      </c>
+      <c r="B105" s="1">
+        <v>11</v>
+      </c>
+      <c r="C105" s="1">
+        <v>302500</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>Timiroitin</v>
+      </c>
+      <c r="B106" s="1">
+        <v>130</v>
+      </c>
+      <c r="C106" s="1">
+        <v>538200</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>Timiroitin</v>
+      </c>
+      <c r="B107" s="1">
+        <v>20</v>
+      </c>
+      <c r="C107" s="1">
+        <v>82800</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>Timiroitin</v>
+      </c>
+      <c r="B108" s="1">
+        <v>20</v>
+      </c>
+      <c r="C108" s="1">
+        <v>82800</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>Timiroitin</v>
+      </c>
+      <c r="B109" s="1">
+        <v>20</v>
+      </c>
+      <c r="C109" s="1">
+        <v>82800</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>Timiroitin</v>
+      </c>
+      <c r="B110" s="1">
+        <v>424</v>
+      </c>
+      <c r="C110" s="1">
+        <v>1755360</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>Timiroitin</v>
+      </c>
+      <c r="B111" s="1">
+        <v>10</v>
+      </c>
+      <c r="C111" s="1">
+        <v>41400</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>Timiroitin</v>
+      </c>
+      <c r="B112" s="1">
+        <v>100</v>
+      </c>
+      <c r="C112" s="1">
+        <v>414000</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>Trisova (Trimetazidine 20mg)</v>
+      </c>
+      <c r="B113" s="1">
+        <v>56</v>
+      </c>
+      <c r="C113" s="1">
+        <v>109480</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>Voltaren 1% Emulgel 20g</v>
+      </c>
+      <c r="B114" s="1">
+        <v>1</v>
+      </c>
+      <c r="C114" s="1">
+        <v>69500</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
         <v>Tổng cộng</v>
       </c>
-      <c r="B24" s="1">
-        <v>21741</v>
-      </c>
-      <c r="C24" s="1">
-        <v>NaN</v>
+      <c r="B115" s="1">
+        <v>19968</v>
+      </c>
+      <c r="C115" s="1">
+        <v>122875935</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C24"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C115"/>
   </ignoredErrors>
 </worksheet>
 </file>